--- a/biology/Biologie cellulaire et moléculaire/Récepteur_de_la_TSH/Récepteur_de_la_TSH.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_de_la_TSH/Récepteur_de_la_TSH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_la_TSH</t>
+          <t>Récepteur_de_la_TSH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le récepteur de la TSH, ou récepteur de la thyréostimuline, est un récepteur membranaire couplé à la protéine Gs[2],[3] présent essentiellement à la surface des cellules folliculaires de la thyroïde où il a pour fonction de stimuler la production d'hormones thyroïdiennes, c'est-à-dire de la thyroxine (T4) et de la triiodothyronine (T3). Son gène est le TSHR situé sur le chromosome 14 humain.
+Le récepteur de la TSH, ou récepteur de la thyréostimuline, est un récepteur membranaire couplé à la protéine Gs, présent essentiellement à la surface des cellules folliculaires de la thyroïde où il a pour fonction de stimuler la production d'hormones thyroïdiennes, c'est-à-dire de la thyroxine (T4) et de la triiodothyronine (T3). Son gène est le TSHR situé sur le chromosome 14 humain.
 La liaison d'une molécule de TSH à une protéine G active l'adénylate cyclase, qui convertit l'ATP en AMP cyclique à l'intérieur des cellules folliculaires, ce qui a pour effet d'activer le pompage des anions iodure I−, la biosynthèse de la thyroglobuline, l'activation de la thyroperoxydase, l'endocytose de la colloïde et sa protéolyse dans les lysosomes pour permettre l'exocytose des hormones elles-mêmes.
 </t>
         </is>
